--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6445A9-FD34-ED43-8D12-F3B6D349A372}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371386B8-1E8D-524C-B849-041806B5FE4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -698,9 +698,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>//button[@value='Search']</t>
-  </si>
-  <si>
     <t>search for Sentry Test Automation</t>
   </si>
   <si>
@@ -966,15 +963,6 @@
   </si>
   <si>
     <t>assertCssPresent(locator,property,value)</t>
-  </si>
-  <si>
-    <t>//div[@class='sfbgg']</t>
-  </si>
-  <si>
-    <t>background-color</t>
-  </si>
-  <si>
-    <t>rgba(250, 250, 250, 1)</t>
   </si>
   <si>
     <t>macro(file,sheet,name)</t>
@@ -1757,7 +1745,16 @@
     <t>cnn</t>
   </si>
   <si>
-    <t>PauseAfter()</t>
+    <t>//form[@class='tsf']</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//input[@value='Google Search']</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -2616,13 +2613,13 @@
         <v>144</v>
       </c>
       <c r="H1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K1" t="s">
         <v>186</v>
@@ -2634,25 +2631,25 @@
         <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Q1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="R1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="S1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="T1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="U1" t="s">
         <v>30</v>
@@ -2667,18 +2664,18 @@
         <v>132</v>
       </c>
       <c r="Y1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Z1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2696,43 +2693,43 @@
         <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K2" t="s">
         <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="R2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="S2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="T2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
@@ -2750,7 +2747,7 @@
         <v>134</v>
       </c>
       <c r="Z2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2758,55 +2755,55 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E3" t="s">
         <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K3" t="s">
         <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="R3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="S3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="T3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="U3" t="s">
         <v>42</v>
@@ -2818,13 +2815,13 @@
         <v>124</v>
       </c>
       <c r="X3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Y3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Z3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -2832,7 +2829,7 @@
         <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2841,19 +2838,19 @@
         <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K4" t="s">
         <v>189</v>
@@ -2862,25 +2859,25 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="R4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="T4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="U4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="V4" t="s">
         <v>120</v>
@@ -2892,10 +2889,10 @@
         <v>134</v>
       </c>
       <c r="Y4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Z4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2903,19 +2900,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I5" t="s">
         <v>177</v>
@@ -2927,22 +2924,22 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="R5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="S5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="U5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="V5" t="s">
         <v>121</v>
@@ -2954,10 +2951,10 @@
         <v>135</v>
       </c>
       <c r="Y5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Z5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2965,16 +2962,16 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F6" t="s">
-        <v>368</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
@@ -2986,16 +2983,16 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="S6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="U6" t="s">
         <v>43</v>
@@ -3010,10 +3007,10 @@
         <v>136</v>
       </c>
       <c r="Y6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Z6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -3021,16 +3018,16 @@
         <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
         <v>170</v>
@@ -3042,16 +3039,16 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="S7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="U7" t="s">
         <v>44</v>
@@ -3063,27 +3060,27 @@
         <v>137</v>
       </c>
       <c r="Y7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Z7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
@@ -3095,13 +3092,13 @@
         <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="S8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="U8" t="s">
         <v>45</v>
@@ -3113,7 +3110,7 @@
         <v>138</v>
       </c>
       <c r="Z8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -3121,16 +3118,16 @@
         <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K9" t="s">
         <v>194</v>
@@ -3139,33 +3136,33 @@
         <v>165</v>
       </c>
       <c r="N9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="S9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="U9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X9" t="s">
         <v>183</v>
       </c>
       <c r="Z9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
@@ -3177,19 +3174,19 @@
         <v>166</v>
       </c>
       <c r="N10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="U10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X10" t="s">
         <v>184</v>
       </c>
       <c r="Z10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -3197,10 +3194,10 @@
         <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>151</v>
@@ -3212,16 +3209,16 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -3232,7 +3229,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I12" t="s">
         <v>171</v>
@@ -3241,7 +3238,7 @@
         <v>167</v>
       </c>
       <c r="N12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U12" t="s">
         <v>46</v>
@@ -3258,7 +3255,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I13" t="s">
         <v>172</v>
@@ -3267,10 +3264,10 @@
         <v>168</v>
       </c>
       <c r="N13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="X13" t="s">
         <v>140</v>
@@ -3278,13 +3275,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
         <v>173</v>
@@ -3293,7 +3290,7 @@
         <v>169</v>
       </c>
       <c r="N14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U14" t="s">
         <v>47</v>
@@ -3307,16 +3304,16 @@
         <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
         <v>174</v>
       </c>
       <c r="N15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
@@ -3327,19 +3324,19 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U16" t="s">
         <v>49</v>
@@ -3350,7 +3347,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3376,7 +3373,7 @@
         <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -3384,13 +3381,13 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I19" t="s">
         <v>153</v>
@@ -3401,13 +3398,13 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I20" t="s">
         <v>154</v>
@@ -3421,10 +3418,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I21" t="s">
         <v>155</v>
@@ -3441,7 +3438,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -3452,10 +3449,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>
@@ -3466,10 +3463,10 @@
         <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="U24" t="s">
         <v>57</v>
@@ -3477,10 +3474,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E25" t="s">
         <v>157</v>
@@ -3491,13 +3488,13 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="U26" t="s">
         <v>59</v>
@@ -3508,10 +3505,10 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3519,7 +3516,7 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="U28" t="s">
         <v>60</v>
@@ -3530,7 +3527,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="U29" t="s">
         <v>61</v>
@@ -3541,7 +3538,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U30" t="s">
         <v>62</v>
@@ -3552,7 +3549,7 @@
         <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="U31" t="s">
         <v>63</v>
@@ -3563,7 +3560,7 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="U32" t="s">
         <v>64</v>
@@ -3574,7 +3571,7 @@
         <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="U33" t="s">
         <v>65</v>
@@ -3582,15 +3579,15 @@
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="U34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="U35" t="s">
         <v>66</v>
@@ -3598,23 +3595,23 @@
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="U36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U37" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="U38" t="s">
         <v>67</v>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U40" t="s">
         <v>69</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="U41" t="s">
         <v>70</v>
@@ -3646,7 +3643,7 @@
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="U42" t="s">
         <v>71</v>
@@ -3654,7 +3651,7 @@
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U43" t="s">
         <v>72</v>
@@ -3662,15 +3659,15 @@
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="U44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="U45" t="s">
         <v>73</v>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U46" t="s">
         <v>74</v>
@@ -3686,7 +3683,7 @@
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="U47" t="s">
         <v>75</v>
@@ -3694,7 +3691,7 @@
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="U48" t="s">
         <v>76</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="49" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="U49" t="s">
         <v>77</v>
@@ -3710,15 +3707,15 @@
     </row>
     <row r="50" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="U50" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="U51" t="s">
         <v>78</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="52" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="U52" t="s">
         <v>79</v>
@@ -3734,7 +3731,7 @@
     </row>
     <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="U53" t="s">
         <v>80</v>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="U54" t="s">
         <v>81</v>
@@ -3750,7 +3747,7 @@
     </row>
     <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="U55" t="s">
         <v>82</v>
@@ -3758,7 +3755,7 @@
     </row>
     <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="U56" t="s">
         <v>83</v>
@@ -3766,7 +3763,7 @@
     </row>
     <row r="57" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U57" t="s">
         <v>84</v>
@@ -3774,23 +3771,23 @@
     </row>
     <row r="58" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="U58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="U59" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U60" t="s">
         <v>85</v>
@@ -3798,7 +3795,7 @@
     </row>
     <row r="61" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="U61" t="s">
         <v>86</v>
@@ -3806,7 +3803,7 @@
     </row>
     <row r="62" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="U62" t="s">
         <v>87</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="63" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="U63" t="s">
         <v>88</v>
@@ -3822,23 +3819,23 @@
     </row>
     <row r="64" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="U64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="U65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="U66" t="s">
         <v>89</v>
@@ -3846,7 +3843,7 @@
     </row>
     <row r="67" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="U67" t="s">
         <v>90</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="68" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U68" t="s">
         <v>91</v>
@@ -3862,7 +3859,7 @@
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="U69" t="s">
         <v>92</v>
@@ -3870,7 +3867,7 @@
     </row>
     <row r="70" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U70" t="s">
         <v>93</v>
@@ -3878,47 +3875,47 @@
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="U71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="U72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="U73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="U74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="U75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="U76" t="s">
         <v>94</v>
@@ -3926,15 +3923,15 @@
     </row>
     <row r="77" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="U77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="U78" t="s">
         <v>95</v>
@@ -3942,55 +3939,55 @@
     </row>
     <row r="79" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="U79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="U80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="U81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="U83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U85" t="s">
         <v>96</v>
@@ -3998,15 +3995,15 @@
     </row>
     <row r="86" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U86" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="U87" t="s">
         <v>97</v>
@@ -4014,7 +4011,7 @@
     </row>
     <row r="88" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="U88" t="s">
         <v>98</v>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="89" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="U89" t="s">
         <v>99</v>
@@ -4030,7 +4027,7 @@
     </row>
     <row r="90" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="U90" t="s">
         <v>100</v>
@@ -4038,7 +4035,7 @@
     </row>
     <row r="91" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U91" t="s">
         <v>101</v>
@@ -4140,8 +4137,8 @@
   <dimension ref="A1:O1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4175,10 +4172,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -4223,13 +4220,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -4275,7 +4272,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>200</v>
@@ -4328,7 +4325,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -4369,7 +4366,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>30</v>
@@ -4381,7 +4378,7 @@
         <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4405,7 +4402,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -4423,19 +4420,19 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -4457,7 +4454,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -4498,19 +4495,19 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -4532,7 +4529,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4573,19 +4570,19 @@
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -4607,7 +4604,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4627,7 +4624,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>207</v>
@@ -4652,16 +4649,16 @@
         <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>300</v>
+        <v>557</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>301</v>
+        <v>558</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>302</v>
+        <v>559</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -4679,16 +4676,16 @@
         <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -4706,16 +4703,16 @@
         <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -4728,17 +4725,17 @@
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -4756,19 +4753,19 @@
     <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -4790,16 +4787,16 @@
         <v>163</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -4816,13 +4813,13 @@
         <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -4841,13 +4838,13 @@
         <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -4866,13 +4863,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -4891,13 +4888,13 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -4916,13 +4913,13 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -4941,13 +4938,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -4966,13 +4963,13 @@
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -4991,13 +4988,13 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -5016,13 +5013,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -5041,13 +5038,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -5066,13 +5063,13 @@
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -5094,15 +5091,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" t="s">
-        <v>561</v>
-      </c>
+      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -6168,10 +6163,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -6216,13 +6211,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -6261,17 +6256,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -7379,10 +7374,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -7427,13 +7422,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -7479,10 +7474,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -7500,7 +7495,7 @@
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>30</v>
@@ -7509,7 +7504,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -7532,7 +7527,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -7557,10 +7552,10 @@
         <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -7584,7 +7579,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -7602,7 +7597,7 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>30</v>
@@ -7611,7 +7606,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -7629,7 +7624,7 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>30</v>
@@ -7638,7 +7633,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -7656,7 +7651,7 @@
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
@@ -7665,10 +7660,10 @@
         <v>98</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -7684,7 +7679,7 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -7694,10 +7689,10 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -7719,7 +7714,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -8812,10 +8807,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -8830,7 +8825,7 @@
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8860,13 +8855,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -8905,17 +8900,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8938,7 +8933,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -8961,7 +8956,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -8984,7 +8979,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -9007,7 +9002,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -9053,7 +9048,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -9073,13 +9068,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -9101,7 +9096,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -9124,7 +9119,7 @@
         <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -9147,7 +9142,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -9170,7 +9165,7 @@
         <v>156</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -9185,10 +9180,10 @@
     </row>
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -9218,7 +9213,7 @@
         <v>92</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -9241,7 +9236,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -9257,19 +9252,19 @@
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9291,7 +9286,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -9306,10 +9301,10 @@
     </row>
     <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
@@ -9339,7 +9334,7 @@
         <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -9359,10 +9354,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -9377,19 +9372,19 @@
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -9412,7 +9407,7 @@
         <v>92</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -9435,7 +9430,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -9458,7 +9453,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -9473,7 +9468,7 @@
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="6" t="s">
@@ -9483,7 +9478,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -9529,7 +9524,7 @@
         <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -9549,13 +9544,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -9577,7 +9572,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -9600,7 +9595,7 @@
         <v>92</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -9623,7 +9618,7 @@
         <v>40</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -9646,7 +9641,7 @@
         <v>156</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -9669,7 +9664,7 @@
         <v>49</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -9684,7 +9679,7 @@
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="6" t="s">
@@ -9694,7 +9689,7 @@
         <v>73</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -9717,7 +9712,7 @@
         <v>105</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -9740,7 +9735,7 @@
         <v>94</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -9760,13 +9755,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -9788,7 +9783,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -9811,7 +9806,7 @@
         <v>92</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -9834,7 +9829,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -9857,7 +9852,7 @@
         <v>156</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -9872,20 +9867,20 @@
     </row>
     <row r="46" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -9957,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -9974,14 +9969,14 @@
     </row>
     <row r="50" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -24433,10 +24428,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -24451,7 +24446,7 @@
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -24481,13 +24476,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -24526,17 +24521,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -24559,10 +24554,10 @@
         <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -24576,7 +24571,7 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -24586,7 +24581,7 @@
         <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -24609,7 +24604,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -24632,7 +24627,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -24655,10 +24650,10 @@
         <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -24672,10 +24667,10 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" t="s">
         <v>480</v>
-      </c>
-      <c r="B11" t="s">
-        <v>484</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>30</v>
@@ -24684,7 +24679,7 @@
         <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371386B8-1E8D-524C-B849-041806B5FE4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989D147-75F5-8F4A-8815-9BA7B36F8E8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="wait_element" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">showcase!$A$1:$I$2</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
@@ -53,7 +54,7 @@
     <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -155,9 +156,6 @@
     <t>flow controls</t>
   </si>
   <si>
-    <t>sentry dev</t>
-  </si>
-  <si>
     <t>web</t>
   </si>
   <si>
@@ -698,18 +696,9 @@
     <t>0</t>
   </si>
   <si>
-    <t>search for Sentry Test Automation</t>
-  </si>
-  <si>
     <t>found "Test Automation"</t>
   </si>
   <si>
-    <t>found "Sentry"</t>
-  </si>
-  <si>
-    <t>but none for "Sentry Test Automation"</t>
-  </si>
-  <si>
     <t>${searchKey1} ${searchKey2}</t>
   </si>
   <si>
@@ -1283,7 +1272,472 @@
     <t>//*[@class='user-agent']</t>
   </si>
   <si>
-    <t>This Sentry test ran on ${operating system}, at ${ip address}, with screen resolution at ${screen size} / ${color depth}.
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re using </t>
+  </si>
+  <si>
+    <t>assertElementPresent(name)</t>
+  </si>
+  <si>
+    <t>saveElementCount(var,name)</t>
+  </si>
+  <si>
+    <t>assertTextList(locator,list,ignoreOrder)</t>
+  </si>
+  <si>
+    <t>editCurrentRow(nameValues)</t>
+  </si>
+  <si>
+    <t>useTableRow(var,row)</t>
+  </si>
+  <si>
+    <t>assertNotEqual(expected,actual)</t>
+  </si>
+  <si>
+    <t>clickTextPaneRow(var,index)</t>
+  </si>
+  <si>
+    <t>clickTextPane(name,criteria)</t>
+  </si>
+  <si>
+    <t>saveTextPane(var,name,criteria)</t>
+  </si>
+  <si>
+    <t>saveListData(var,contains)</t>
+  </si>
+  <si>
+    <t>closeAll()</t>
+  </si>
+  <si>
+    <t>testing open to new targets and closing out multiple tabs/windows</t>
+  </si>
+  <si>
+    <t>newPageLocation</t>
+  </si>
+  <si>
+    <t>${newPageLocation}</t>
+  </si>
+  <si>
+    <t>Open new target</t>
+  </si>
+  <si>
+    <t>Close new target</t>
+  </si>
+  <si>
+    <t>Close current window</t>
+  </si>
+  <si>
+    <t>windowIds_2</t>
+  </si>
+  <si>
+    <t>${windowIds_2}</t>
+  </si>
+  <si>
+    <t>//a[@target='_blank' and text()='New Browser Window']</t>
+  </si>
+  <si>
+    <t>http://www.hyperlinkcode.com/new-window.php</t>
+  </si>
+  <si>
+    <t>Open Hyperlink in a New Window</t>
+  </si>
+  <si>
+    <t>windowIds_3</t>
+  </si>
+  <si>
+    <t>${windowIds_3}</t>
+  </si>
+  <si>
+    <t>windowId_1</t>
+  </si>
+  <si>
+    <t>${windowId_1}</t>
+  </si>
+  <si>
+    <t>windowId_3</t>
+  </si>
+  <si>
+    <t>${windowId_3}</t>
+  </si>
+  <si>
+    <t>windowId_4</t>
+  </si>
+  <si>
+    <t>${windowId_4}</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Open new target 2</t>
+  </si>
+  <si>
+    <t>Open new target 3</t>
+  </si>
+  <si>
+    <t>Open new target 4</t>
+  </si>
+  <si>
+    <t>Check open targets</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Close all</t>
+  </si>
+  <si>
+    <t>[LIST(${windowIds_3}) =&gt; length]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>close newly opened window</t>
+  </si>
+  <si>
+    <t>close initial window</t>
+  </si>
+  <si>
+    <t>force new browser instance</t>
+  </si>
+  <si>
+    <t>check that we are back to same initial window</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>resize(image,width,height,saveTo)</t>
+  </si>
+  <si>
+    <t>compare(baseline,actual)</t>
+  </si>
+  <si>
+    <t>convert(source,format,saveTo)</t>
+  </si>
+  <si>
+    <t>crop(image,dimension,saveTo)</t>
+  </si>
+  <si>
+    <t>assertLocatorNotPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locater)</t>
+  </si>
+  <si>
+    <t>assertAttributeContains(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContains(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>//div[@id='logocont']</t>
+  </si>
+  <si>
+    <t>logo_cont</t>
+  </si>
+  <si>
+    <t>getRowCount(var)</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>sftpCopyFrom(var,profile,remote,local)</t>
+  </si>
+  <si>
+    <t>sftpCopyTo(var,profile,local,remote)</t>
+  </si>
+  <si>
+    <t>sftpList(var,profile,remote)</t>
+  </si>
+  <si>
+    <t>sftpDelete(var,profile,remote)</t>
+  </si>
+  <si>
+    <t>sftpMoveFrom(var,profile,remote,local)</t>
+  </si>
+  <si>
+    <t>sftpMoveTo(var,profile,local,remote)</t>
+  </si>
+  <si>
+    <t>go to example page</t>
+  </si>
+  <si>
+    <t>http://jsfiddle.net/Gajotres/KZQqd/</t>
+  </si>
+  <si>
+    <t>name=result</t>
+  </si>
+  <si>
+    <t>//a[contains(@class,'button-example2') and /descendant::text()='Next']</t>
+  </si>
+  <si>
+    <t>basic check</t>
+  </si>
+  <si>
+    <t>wait for attr change</t>
+  </si>
+  <si>
+    <t>//input[@type='button' and @value='Click me' and @disabled='disabled']</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>wait for disabled button to become enabled</t>
+  </si>
+  <si>
+    <t>//input[@type='button' and @value='Click me' and not(@disabled)]</t>
+  </si>
+  <si>
+    <t>delete(url,body,var)</t>
+  </si>
+  <si>
+    <t>compareExtended(var,profile,expected,actual)</t>
+  </si>
+  <si>
+    <t>assertHierCells(matchBy,column,expected,nestedOnly)</t>
+  </si>
+  <si>
+    <t>assertHierRow(matchBy,expected)</t>
+  </si>
+  <si>
+    <t>editHierCells(var,matchBy,nameValues)</t>
+  </si>
+  <si>
+    <t>saveHierCells(var,matchBy,column,nestedOnly)</t>
+  </si>
+  <si>
+    <t>saveHierRow(var,matchBy)</t>
+  </si>
+  <si>
+    <t>aws.s3</t>
+  </si>
+  <si>
+    <t>assertNotPresent(profile,remotePath)</t>
+  </si>
+  <si>
+    <t>assertPresent(profile,remotePath)</t>
+  </si>
+  <si>
+    <t>copyFrom(var,profile,remote,local)</t>
+  </si>
+  <si>
+    <t>copyTo(var,profile,local,remote)</t>
+  </si>
+  <si>
+    <t>delete(var,profile,remotePath)</t>
+  </si>
+  <si>
+    <t>list(var,profile,remotePath)</t>
+  </si>
+  <si>
+    <t>moveFrom(var,profile,remote,local)</t>
+  </si>
+  <si>
+    <t>moveTo(var,profile,local,remote)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,filePattern)</t>
+  </si>
+  <si>
+    <t>scpCopyFrom(var,profile,remote,local)</t>
+  </si>
+  <si>
+    <t>scpCopyTo(var,profile,local,remote)</t>
+  </si>
+  <si>
+    <t>scrollRight(locator,pixel)</t>
+  </si>
+  <si>
+    <t>receive(var,config,waitMs)</t>
+  </si>
+  <si>
+    <t>assertVarNotPresent(var)</t>
+  </si>
+  <si>
+    <t>assertVarPresent(var)</t>
+  </si>
+  <si>
+    <t>assertDisabled(name)</t>
+  </si>
+  <si>
+    <t>assertEnabled(name)</t>
+  </si>
+  <si>
+    <t>executeScript(var,script)</t>
+  </si>
+  <si>
+    <t>http://www.cnn.com/</t>
+  </si>
+  <si>
+    <t>filter(source,target,matchPattern)</t>
+  </si>
+  <si>
+    <t>saveResult(db,sql,output)</t>
+  </si>
+  <si>
+    <t>validate(var,profile,inputFile)</t>
+  </si>
+  <si>
+    <t>assertTextNotPresent(text)</t>
+  </si>
+  <si>
+    <t>nexial.stepByStep</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>//*[@id='hplogo']</t>
+  </si>
+  <si>
+    <t>//div[@class='rc']//a[contains(text(), '${searchKey1} ${searchKey2}')]</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Google apps</t>
+  </si>
+  <si>
+    <t>//div[@id='gbwa']//a</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>//form[@class='tsf']</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//input[@value='Google Search']</t>
+  </si>
+  <si>
+    <t>This test ran on ${operating system}, at ${ip address}, with screen resolution at ${screen size} / ${color depth}.
 The browser used is ${browser description}, ${screen size}.
 Javascript? ${javascript enabled}
 Cookie? ${cookie enabled}
@@ -1292,469 +1746,16 @@
 Websocket? ${websocket supported}.</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re using </t>
-  </si>
-  <si>
-    <t>assertElementPresent(name)</t>
-  </si>
-  <si>
-    <t>saveElementCount(var,name)</t>
-  </si>
-  <si>
-    <t>assertTextList(locator,list,ignoreOrder)</t>
-  </si>
-  <si>
-    <t>editCurrentRow(nameValues)</t>
-  </si>
-  <si>
-    <t>useTableRow(var,row)</t>
-  </si>
-  <si>
-    <t>assertNotEqual(expected,actual)</t>
-  </si>
-  <si>
-    <t>clickTextPaneRow(var,index)</t>
-  </si>
-  <si>
-    <t>clickTextPane(name,criteria)</t>
-  </si>
-  <si>
-    <t>saveTextPane(var,name,criteria)</t>
-  </si>
-  <si>
-    <t>saveListData(var,contains)</t>
-  </si>
-  <si>
-    <t>closeAll()</t>
-  </si>
-  <si>
-    <t>testing open to new targets and closing out multiple tabs/windows</t>
-  </si>
-  <si>
-    <t>newPageLocation</t>
-  </si>
-  <si>
-    <t>${newPageLocation}</t>
-  </si>
-  <si>
-    <t>Open new target</t>
-  </si>
-  <si>
-    <t>Close new target</t>
-  </si>
-  <si>
-    <t>Close current window</t>
-  </si>
-  <si>
-    <t>windowIds_2</t>
-  </si>
-  <si>
-    <t>${windowIds_2}</t>
-  </si>
-  <si>
-    <t>//a[@target='_blank' and text()='New Browser Window']</t>
-  </si>
-  <si>
-    <t>http://www.hyperlinkcode.com/new-window.php</t>
-  </si>
-  <si>
-    <t>Open Hyperlink in a New Window</t>
-  </si>
-  <si>
-    <t>windowIds_3</t>
-  </si>
-  <si>
-    <t>${windowIds_3}</t>
-  </si>
-  <si>
-    <t>windowId_1</t>
-  </si>
-  <si>
-    <t>${windowId_1}</t>
-  </si>
-  <si>
-    <t>windowId_3</t>
-  </si>
-  <si>
-    <t>${windowId_3}</t>
-  </si>
-  <si>
-    <t>windowId_4</t>
-  </si>
-  <si>
-    <t>${windowId_4}</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Open new target 2</t>
-  </si>
-  <si>
-    <t>Open new target 3</t>
-  </si>
-  <si>
-    <t>Open new target 4</t>
-  </si>
-  <si>
-    <t>Check open targets</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Close all</t>
-  </si>
-  <si>
-    <t>[LIST(${windowIds_3}) =&gt; length]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>close newly opened window</t>
-  </si>
-  <si>
-    <t>close initial window</t>
-  </si>
-  <si>
-    <t>force new browser instance</t>
-  </si>
-  <si>
-    <t>check that we are back to same initial window</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>resize(image,width,height,saveTo)</t>
-  </si>
-  <si>
-    <t>compare(baseline,actual)</t>
-  </si>
-  <si>
-    <t>convert(source,format,saveTo)</t>
-  </si>
-  <si>
-    <t>crop(image,dimension,saveTo)</t>
-  </si>
-  <si>
-    <t>assertLocatorNotPresent(locator)</t>
-  </si>
-  <si>
-    <t>saveModalDialogTextByLocator(var,locater)</t>
-  </si>
-  <si>
-    <t>assertAttributeContains(locator,attrName,contains)</t>
-  </si>
-  <si>
-    <t>assertAttributeNotContains(locator,attrName,contains)</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>//div[@id='logocont']</t>
-  </si>
-  <si>
-    <t>logo_cont</t>
-  </si>
-  <si>
-    <t>getRowCount(var)</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>sftpCopyFrom(var,profile,remote,local)</t>
-  </si>
-  <si>
-    <t>sftpCopyTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>sftpList(var,profile,remote)</t>
-  </si>
-  <si>
-    <t>sftpDelete(var,profile,remote)</t>
-  </si>
-  <si>
-    <t>sftpMoveFrom(var,profile,remote,local)</t>
-  </si>
-  <si>
-    <t>sftpMoveTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>go to example page</t>
-  </si>
-  <si>
-    <t>http://jsfiddle.net/Gajotres/KZQqd/</t>
-  </si>
-  <si>
-    <t>name=result</t>
-  </si>
-  <si>
-    <t>//a[contains(@class,'button-example2') and /descendant::text()='Next']</t>
-  </si>
-  <si>
-    <t>basic check</t>
-  </si>
-  <si>
-    <t>wait for attr change</t>
-  </si>
-  <si>
-    <t>//input[@type='button' and @value='Click me' and @disabled='disabled']</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>wait for disabled button to become enabled</t>
-  </si>
-  <si>
-    <t>//input[@type='button' and @value='Click me' and not(@disabled)]</t>
-  </si>
-  <si>
-    <t>delete(url,body,var)</t>
-  </si>
-  <si>
-    <t>compareExtended(var,profile,expected,actual)</t>
-  </si>
-  <si>
-    <t>assertHierCells(matchBy,column,expected,nestedOnly)</t>
-  </si>
-  <si>
-    <t>assertHierRow(matchBy,expected)</t>
-  </si>
-  <si>
-    <t>editHierCells(var,matchBy,nameValues)</t>
-  </si>
-  <si>
-    <t>saveHierCells(var,matchBy,column,nestedOnly)</t>
-  </si>
-  <si>
-    <t>saveHierRow(var,matchBy)</t>
-  </si>
-  <si>
-    <t>aws.s3</t>
-  </si>
-  <si>
-    <t>assertNotPresent(profile,remotePath)</t>
-  </si>
-  <si>
-    <t>assertPresent(profile,remotePath)</t>
-  </si>
-  <si>
-    <t>copyFrom(var,profile,remote,local)</t>
-  </si>
-  <si>
-    <t>copyTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>delete(var,profile,remotePath)</t>
-  </si>
-  <si>
-    <t>list(var,profile,remotePath)</t>
-  </si>
-  <si>
-    <t>moveFrom(var,profile,remote,local)</t>
-  </si>
-  <si>
-    <t>moveTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>saveMatches(var,path,filePattern)</t>
-  </si>
-  <si>
-    <t>scpCopyFrom(var,profile,remote,local)</t>
-  </si>
-  <si>
-    <t>scpCopyTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>scrollRight(locator,pixel)</t>
-  </si>
-  <si>
-    <t>receive(var,config,waitMs)</t>
-  </si>
-  <si>
-    <t>assertVarNotPresent(var)</t>
-  </si>
-  <si>
-    <t>assertVarPresent(var)</t>
-  </si>
-  <si>
-    <t>assertDisabled(name)</t>
-  </si>
-  <si>
-    <t>assertEnabled(name)</t>
-  </si>
-  <si>
-    <t>executeScript(var,script)</t>
-  </si>
-  <si>
-    <t>http://www.cnn.com/</t>
-  </si>
-  <si>
-    <t>filter(source,target,matchPattern)</t>
-  </si>
-  <si>
-    <t>saveResult(db,sql,output)</t>
-  </si>
-  <si>
-    <t>validate(var,profile,inputFile)</t>
-  </si>
-  <si>
-    <t>assertTextNotPresent(text)</t>
-  </si>
-  <si>
-    <t>nexial.stepByStep</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>story / feature</t>
-  </si>
-  <si>
-    <t>test id</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>observe(prompt)</t>
-  </si>
-  <si>
-    <t>perform(instructions)</t>
-  </si>
-  <si>
-    <t>validate(prompt,responses,passResponses)</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>append(profile,key,value)</t>
-  </si>
-  <si>
-    <t>assertKeyExists(profile,key)</t>
-  </si>
-  <si>
-    <t>delete(profile,key)</t>
-  </si>
-  <si>
-    <t>flushAll(profile)</t>
-  </si>
-  <si>
-    <t>flushDb(profile)</t>
-  </si>
-  <si>
-    <t>rename(profile,current,new)</t>
-  </si>
-  <si>
-    <t>set(profile,key,value)</t>
-  </si>
-  <si>
-    <t>store(var,profile,key)</t>
-  </si>
-  <si>
-    <t>storeKeys(var,profile,keyPattern)</t>
-  </si>
-  <si>
-    <t>saveRowCount(var)</t>
-  </si>
-  <si>
-    <t>saveTableRowsRange(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,min,max)</t>
-  </si>
-  <si>
-    <t>clear(vars)</t>
-  </si>
-  <si>
-    <t>send(profile,to,subject,body)</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>saveResults(db,sqls,outputDir)</t>
-  </si>
-  <si>
-    <t>play(audio)</t>
-  </si>
-  <si>
-    <t>speak(text)</t>
-  </si>
-  <si>
-    <t>speakNoWait(text)</t>
-  </si>
-  <si>
-    <t>section(steps)</t>
-  </si>
-  <si>
-    <t>laser(repeats)</t>
-  </si>
-  <si>
-    <t>sms</t>
-  </si>
-  <si>
-    <t>sendText(phones,text)</t>
-  </si>
-  <si>
-    <t>ws.async</t>
-  </si>
-  <si>
-    <t>get(url,queryString,output)</t>
-  </si>
-  <si>
-    <t>head(url,output)</t>
-  </si>
-  <si>
-    <t>patch(url,body,output)</t>
-  </si>
-  <si>
-    <t>post(url,body,output)</t>
-  </si>
-  <si>
-    <t>put(url,body,output)</t>
-  </si>
-  <si>
-    <t>//*[@id='hplogo']</t>
-  </si>
-  <si>
-    <t>//div[@class='rc']//a[contains(text(), '${searchKey1} ${searchKey2}')]</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Google apps</t>
-  </si>
-  <si>
-    <t>//div[@id='gbwa']//a</t>
-  </si>
-  <si>
-    <t>cnn</t>
-  </si>
-  <si>
-    <t>//form[@class='tsf']</t>
-  </si>
-  <si>
-    <t>overflow</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>//input[@value='Google Search']</t>
+    <t>nexial dev</t>
+  </si>
+  <si>
+    <t>search for Nexial Test Automation</t>
+  </si>
+  <si>
+    <t>found "Nexial"</t>
+  </si>
+  <si>
+    <t>but none for "Nexial Test Automation"</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1998,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2123,6 +2124,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2595,159 +2620,159 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
       <c r="J1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="R1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="T1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
       <c r="X1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Z1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="R2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="S2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="T2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" t="s">
-        <v>134</v>
-      </c>
       <c r="Z2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2755,144 +2780,144 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="R3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="S3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="T3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Y3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Z3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="R4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="S4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="T4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="U4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="V4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Z4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2900,1205 +2925,1205 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="R5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="S5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="U5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Z5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F6" t="s">
         <v>360</v>
       </c>
-      <c r="E6" t="s">
-        <v>506</v>
-      </c>
-      <c r="F6" t="s">
-        <v>364</v>
-      </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="S6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Z6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="S7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Z7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="S8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="S9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="U9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="U10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="X10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="U11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="X11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Z11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="U13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C16" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I16" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="U27" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="U32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="U34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="U36" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="U38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="U41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="U42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="U43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="U45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="U47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="U48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="U49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="U50" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="U52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="U53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="U54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="U55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="U56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="U57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="U59" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="U62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="U63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="U64" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U65" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="U66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="U67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="U68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="U69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="U71" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="U72" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="U73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="U74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="U75" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="U77" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="U79" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="U80" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U81" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="U82" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="U83" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="U84" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="U85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="U86" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="U87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="U88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="U89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="U91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="21:21" x14ac:dyDescent="0.2">
@@ -4108,22 +4133,22 @@
     </row>
     <row r="105" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4138,7 +4163,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4172,25 +4197,25 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4200,13 +4225,13 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -4220,13 +4245,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -4265,17 +4290,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -4284,7 +4309,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -4293,16 +4318,16 @@
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -4319,13 +4344,13 @@
       <c r="A7" s="19"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -4342,13 +4367,13 @@
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -4363,22 +4388,22 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4386,7 +4411,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -4396,13 +4421,13 @@
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -4411,7 +4436,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -4420,19 +4445,19 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -4451,10 +4476,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -4471,16 +4496,16 @@
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -4495,19 +4520,19 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -4526,10 +4551,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4546,16 +4571,16 @@
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -4570,19 +4595,19 @@
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -4601,10 +4626,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4621,16 +4646,16 @@
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -4646,19 +4671,19 @@
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -4673,19 +4698,19 @@
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -4700,19 +4725,19 @@
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -4725,17 +4750,17 @@
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -4744,7 +4769,7 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -4753,19 +4778,19 @@
     <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -4784,19 +4809,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -4810,16 +4835,16 @@
       <c r="A26" s="18"/>
       <c r="B26"/>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -4835,16 +4860,16 @@
       <c r="A27" s="18"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -4860,16 +4885,16 @@
       <c r="A28" s="18"/>
       <c r="B28"/>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -4885,16 +4910,16 @@
       <c r="A29" s="18"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -4910,16 +4935,16 @@
       <c r="A30" s="18"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -4935,16 +4960,16 @@
       <c r="A31" s="18"/>
       <c r="B31" s="14"/>
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -4960,16 +4985,16 @@
       <c r="A32" s="18"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -4985,16 +5010,16 @@
       <c r="A33" s="18"/>
       <c r="B33"/>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -5010,16 +5035,16 @@
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -5035,16 +5060,16 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -5060,16 +5085,16 @@
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -5088,10 +5113,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>405</v>
+        <v>556</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -6130,7 +6155,7 @@
   <dimension ref="A1:O1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6163,10 +6188,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -6181,7 +6206,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6191,7 +6216,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="33"/>
@@ -6211,13 +6236,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -6256,17 +6281,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -6275,7 +6300,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -7339,7 +7364,7 @@
   <dimension ref="A1:O1007"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7374,10 +7399,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -7392,7 +7417,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -7402,7 +7427,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="33"/>
@@ -7422,13 +7447,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -7467,17 +7492,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -7486,7 +7511,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -7495,16 +7520,16 @@
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -7521,13 +7546,13 @@
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -7542,20 +7567,20 @@
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -7563,7 +7588,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -7573,13 +7598,13 @@
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -7588,7 +7613,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -7597,16 +7622,16 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -7615,7 +7640,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -7624,16 +7649,16 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -7642,7 +7667,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -7651,19 +7676,19 @@
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -7671,7 +7696,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -7679,20 +7704,20 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -7708,13 +7733,13 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -8773,8 +8798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O1020"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8807,10 +8832,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -8825,7 +8850,7 @@
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -8835,7 +8860,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="33"/>
@@ -8855,13 +8880,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -8900,17 +8925,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8927,13 +8952,13 @@
       <c r="A6" s="18"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -8953,10 +8978,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -8973,13 +8998,13 @@
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -8996,13 +9021,13 @@
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -9019,13 +9044,13 @@
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -9042,13 +9067,13 @@
       <c r="A11" s="19"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -9068,13 +9093,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -9090,13 +9115,13 @@
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -9113,13 +9138,13 @@
       <c r="A14" s="19"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -9139,10 +9164,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -9162,10 +9187,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -9180,16 +9205,16 @@
     </row>
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -9207,13 +9232,13 @@
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -9233,10 +9258,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -9252,19 +9277,19 @@
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9280,13 +9305,13 @@
       <c r="A21" s="18"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -9301,16 +9326,16 @@
     </row>
     <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -9328,13 +9353,13 @@
       <c r="A23" s="18"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -9354,10 +9379,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -9372,19 +9397,19 @@
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -9401,13 +9426,13 @@
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -9427,10 +9452,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -9447,13 +9472,13 @@
       <c r="A28" s="18"/>
       <c r="B28" s="3"/>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -9468,17 +9493,17 @@
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -9495,13 +9520,13 @@
       <c r="A30" s="18"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -9518,13 +9543,13 @@
       <c r="A31" s="18"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -9544,13 +9569,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -9566,13 +9591,13 @@
       <c r="A33" s="18"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -9589,13 +9614,13 @@
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -9615,10 +9640,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -9638,10 +9663,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -9658,13 +9683,13 @@
       <c r="A37" s="18"/>
       <c r="B37" s="14"/>
       <c r="C37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -9679,17 +9704,17 @@
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -9706,13 +9731,13 @@
       <c r="A39" s="18"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -9729,13 +9754,13 @@
       <c r="A40" s="18"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -9755,13 +9780,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -9777,13 +9802,13 @@
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -9800,13 +9825,13 @@
       <c r="A43" s="18"/>
       <c r="B43"/>
       <c r="C43" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -9826,10 +9851,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -9849,10 +9874,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -9867,20 +9892,20 @@
     </row>
     <row r="46" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -9896,13 +9921,13 @@
       <c r="A47" s="18"/>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -9911,7 +9936,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="2"/>
       <c r="L47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="7"/>
@@ -9921,13 +9946,13 @@
       <c r="A48" s="18"/>
       <c r="B48"/>
       <c r="C48" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -9936,7 +9961,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="2"/>
       <c r="L48" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="7"/>
@@ -9946,13 +9971,13 @@
       <c r="A49" s="18"/>
       <c r="B49"/>
       <c r="C49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -9961,7 +9986,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="2"/>
       <c r="L49" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7"/>
@@ -9969,14 +9994,14 @@
     </row>
     <row r="50" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -24395,7 +24420,7 @@
   <dimension ref="A1:O1022"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24428,10 +24453,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -24446,7 +24471,7 @@
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -24456,7 +24481,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="20" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="33"/>
@@ -24476,13 +24501,13 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -24521,17 +24546,17 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -24551,13 +24576,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -24571,17 +24596,17 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -24598,13 +24623,13 @@
       <c r="A8" s="18"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -24621,13 +24646,13 @@
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -24647,13 +24672,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -24667,19 +24692,19 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -25263,7 +25288,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="2"/>
       <c r="L49" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7"/>
@@ -25282,7 +25307,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="2"/>
       <c r="L50" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="7"/>
@@ -25301,7 +25326,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="2"/>
       <c r="L51" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="7"/>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ACC03E85-05B5-E640-9413-21801CA39727}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FE302EE5-130D-7B44-9F76-FF8FA88D67DA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31460" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -352,9 +352,6 @@
     <t>saveLocation(var)</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>scrollLeft(locator,pixel)</t>
   </si>
   <si>
@@ -1652,9 +1649,6 @@
   </si>
   <si>
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,min,max)</t>
   </si>
   <si>
     <t>clear(vars)</t>
@@ -1825,34 +1819,25 @@
     <t>assertEqual(num1,num2)</t>
   </si>
   <si>
-    <t>average(variableName,array)</t>
-  </si>
-  <si>
-    <t>ceiling(variableName)</t>
-  </si>
-  <si>
-    <t>decrement(variableName,amount)</t>
-  </si>
-  <si>
-    <t>floor(variableName)</t>
-  </si>
-  <si>
-    <t>increment(variableName,amount)</t>
-  </si>
-  <si>
-    <t>max(variableName,array)</t>
-  </si>
-  <si>
-    <t>min(variableName,array)</t>
-  </si>
-  <si>
-    <t>round(variableName,closestDigit)</t>
-  </si>
-  <si>
     <t>delete(url,body,output)</t>
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2247,102 +2232,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="113">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2826,161 +2717,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="121">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -3926,288 +3664,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4225,7 +3681,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4337,6 +3793,8 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -4409,8 +3867,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="7" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4501,94 +3957,49 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="61" fontId="45" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="61" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="64" fontId="47" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="64" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="67" fontId="48" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="67" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="50" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="50" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="73" fontId="52" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="52" fillId="73" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="76" fontId="53" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="53" fillId="76" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="54" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="54" fillId="79" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="55" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="55" fillId="79" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="56" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="56" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="57" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="57" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="58" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="58" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="88" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="91" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="94" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="100" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="103" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5074,7 +4485,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5090,61 +4501,61 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="U1" t="s">
         <v>29</v>
@@ -5156,93 +4567,93 @@
         <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Z1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
         <v>484</v>
-      </c>
-      <c r="B2" t="s">
-        <v>485</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="Z2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -5250,144 +4661,144 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U3" t="s">
         <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -5395,472 +4806,472 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Z5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U6" t="s">
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Z6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U7" t="s">
         <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U8" t="s">
         <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Z8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M10" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="N10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U12" t="s">
         <v>45</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U14" t="s">
         <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U15" t="s">
         <v>47</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U16" t="s">
         <v>48</v>
       </c>
       <c r="X16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U17" t="s">
         <v>49</v>
@@ -5868,16 +5279,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U18" t="s">
         <v>50</v>
@@ -5885,16 +5296,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U19" t="s">
         <v>51</v>
@@ -5902,16 +5313,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -5922,13 +5333,13 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>53</v>
@@ -5939,10 +5350,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U22" t="s">
         <v>54</v>
@@ -5953,10 +5364,10 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
@@ -5964,13 +5375,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U24" t="s">
         <v>56</v>
@@ -5978,13 +5389,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U25" t="s">
         <v>57</v>
@@ -5992,13 +5403,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U26" t="s">
         <v>58</v>
@@ -6009,10 +5420,10 @@
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28">
@@ -6020,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U28" t="s">
         <v>59</v>
@@ -6028,10 +5439,10 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U29" t="s">
         <v>60</v>
@@ -6039,10 +5450,10 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U30" t="s">
         <v>61</v>
@@ -6050,10 +5461,10 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U31" t="s">
         <v>62</v>
@@ -6064,7 +5475,7 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U32" t="s">
         <v>63</v>
@@ -6072,10 +5483,10 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U33" t="s">
         <v>64</v>
@@ -6083,15 +5494,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U35" t="s">
         <v>65</v>
@@ -6099,538 +5510,553 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U37" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U38" t="s">
-        <v>66</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U44" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U45" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U50" t="s">
-        <v>413</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U51" t="s">
-        <v>77</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U58" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U59" t="s">
-        <v>502</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U60" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U63" t="s">
-        <v>87</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U64" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U65" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U66" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U67" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U71" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U72" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U75" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U76" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="U77" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U80" t="s">
-        <v>224</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U81" t="s">
-        <v>225</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U83" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U84" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U85" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U86" t="s">
-        <v>496</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U87" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U88" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>98</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U91" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U92" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6666,12 +6092,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -6679,41 +6105,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -6727,13 +6153,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -6772,17 +6198,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -6791,7 +6217,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -6800,7 +6226,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -6809,7 +6235,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -6832,7 +6258,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -6855,7 +6281,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -6870,22 +6296,22 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -6893,7 +6319,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -6909,7 +6335,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -6918,7 +6344,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -6927,19 +6353,19 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -6961,7 +6387,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -6978,16 +6404,16 @@
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -7002,19 +6428,19 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -7036,7 +6462,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -7053,16 +6479,16 @@
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7077,19 +6503,19 @@
     <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -7111,7 +6537,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -7128,16 +6554,16 @@
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -7156,16 +6582,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -7183,16 +6609,16 @@
         <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -7210,16 +6636,16 @@
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -7232,17 +6658,17 @@
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -7251,7 +6677,7 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -7260,19 +6686,19 @@
     <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -7291,19 +6717,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -7320,13 +6746,13 @@
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -7345,13 +6771,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -7370,13 +6796,13 @@
         <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -7395,13 +6821,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -7420,13 +6846,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -7445,13 +6871,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -7470,13 +6896,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -7495,13 +6921,13 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -7520,13 +6946,13 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -7545,13 +6971,13 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -7570,13 +6996,13 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -7598,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -8657,12 +8083,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -8670,41 +8096,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -8718,13 +8144,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -8763,17 +8189,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8782,7 +8208,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -9868,12 +9294,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -9881,41 +9307,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -9929,13 +9355,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -9974,17 +9400,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -9993,7 +9419,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -10002,7 +9428,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -10011,7 +9437,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -10034,7 +9460,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -10049,20 +9475,20 @@
     </row>
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -10070,7 +9496,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -10086,7 +9512,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -10095,7 +9521,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -10104,7 +9530,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
@@ -10113,7 +9539,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -10122,7 +9548,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -10131,7 +9557,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -10140,7 +9566,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -10149,7 +9575,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -10158,19 +9584,19 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -10178,7 +9604,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -10186,7 +9612,7 @@
     </row>
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -10196,10 +9622,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -10221,7 +9647,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -11301,12 +10727,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -11314,41 +10740,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row customHeight="1" ht="133" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -11362,13 +10788,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -11407,17 +10833,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -11440,7 +10866,7 @@
         <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -11463,7 +10889,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -11486,7 +10912,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -11509,7 +10935,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -11529,10 +10955,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -11555,7 +10981,7 @@
         <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -11575,13 +11001,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -11603,7 +11029,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -11626,7 +11052,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -11649,7 +11075,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -11669,10 +11095,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -11687,10 +11113,10 @@
     </row>
     <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
@@ -11720,7 +11146,7 @@
         <v>91</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -11743,7 +11169,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -11759,19 +11185,19 @@
     <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -11793,7 +11219,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -11808,10 +11234,10 @@
     </row>
     <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>29</v>
@@ -11841,7 +11267,7 @@
         <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -11861,10 +11287,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -11879,19 +11305,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="19" r="25" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -11914,7 +11340,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -11937,7 +11363,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -11960,7 +11386,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -11975,7 +11401,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="19" r="29" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="6" t="s">
@@ -11985,7 +11411,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -12005,10 +11431,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -12031,7 +11457,7 @@
         <v>93</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -12051,13 +11477,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -12079,7 +11505,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -12102,7 +11528,7 @@
         <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -12125,7 +11551,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -12145,10 +11571,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -12171,7 +11597,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -12186,7 +11612,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="19" r="38" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="6" t="s">
@@ -12196,7 +11622,7 @@
         <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -12216,10 +11642,10 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -12242,7 +11668,7 @@
         <v>93</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -12262,13 +11688,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -12290,7 +11716,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -12313,7 +11739,7 @@
         <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -12336,7 +11762,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -12356,10 +11782,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -12374,20 +11800,20 @@
     </row>
     <row customFormat="1" customHeight="1" ht="19" r="46" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -12406,10 +11832,10 @@
         <v>29</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -12418,7 +11844,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="2"/>
       <c r="L47" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="7"/>
@@ -12431,10 +11857,10 @@
         <v>29</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -12443,7 +11869,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="2"/>
       <c r="L48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="7"/>
@@ -12456,10 +11882,10 @@
         <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -12468,7 +11894,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="2"/>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7"/>
@@ -12476,14 +11902,14 @@
     </row>
     <row customFormat="1" customHeight="1" ht="19" r="50" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -26922,12 +26348,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -26935,41 +26361,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row customHeight="1" ht="133" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="20"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -26983,13 +26409,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -27028,17 +26454,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -27058,13 +26484,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -27078,17 +26504,17 @@
     </row>
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -27111,7 +26537,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -27134,7 +26560,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -27154,13 +26580,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -27174,19 +26600,19 @@
     </row>
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -27770,7 +27196,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="2"/>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7"/>
@@ -27789,7 +27215,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="2"/>
       <c r="L50" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="7"/>
@@ -27808,7 +27234,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="2"/>
       <c r="L51" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="7"/>
@@ -42257,12 +41683,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
@@ -42270,41 +41696,41 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row customHeight="1" ht="133" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8"/>
       <c r="F2" s="20"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
     </row>
     <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -42318,13 +41744,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -42363,17 +41789,17 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="5" s="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -42388,22 +41814,22 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24" r="6" s="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -42425,7 +41851,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -42448,10 +41874,10 @@
         <v>46</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -42466,19 +41892,19 @@
     <row customFormat="1" customHeight="1" ht="24" r="9" s="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -42500,7 +41926,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -42523,10 +41949,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -42540,24 +41966,24 @@
     </row>
     <row customHeight="1" ht="24" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="G12" s="51"/>
+        <v>576</v>
+      </c>
+      <c r="G12" s="33"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12"/>
@@ -42577,10 +42003,10 @@
         <v>39</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13"/>
@@ -42600,12 +42026,12 @@
         <v>46</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="51"/>
+        <v>206</v>
+      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14"/>
@@ -42618,7 +42044,7 @@
     <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15"/>
@@ -42631,8 +42057,8 @@
     <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16"/>
@@ -42645,8 +42071,8 @@
     <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17"/>
@@ -42659,8 +42085,8 @@
     <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18"/>
@@ -42673,8 +42099,8 @@
     <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19"/>
@@ -42686,9 +42112,9 @@
     </row>
     <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20"/>
@@ -42701,8 +42127,8 @@
     <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21"/>
@@ -42715,8 +42141,8 @@
     <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22"/>
@@ -42728,7 +42154,7 @@
     </row>
     <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23"/>
@@ -42741,8 +42167,8 @@
     <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24"/>
@@ -42755,9 +42181,9 @@
     <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25"/>
@@ -42770,8 +42196,8 @@
     <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26"/>
@@ -42781,8 +42207,8 @@
     <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27"/>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -48,7 +48,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1839,13 +1839,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2232,8 +2235,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2717,8 +2814,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -3664,6 +3914,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3681,7 +4213,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3957,49 +4489,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="61" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="61" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="64" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="64" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="67" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="67" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="73" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="73" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="76" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="76" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="79" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="79" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="88" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="91" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="94" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="100" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="103" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4485,7 +5062,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5697,7 +6274,7 @@
         <v>403</v>
       </c>
       <c r="U59" t="s">
-        <v>233</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60">
@@ -5705,7 +6282,7 @@
         <v>346</v>
       </c>
       <c r="U60" t="s">
-        <v>501</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61">
@@ -5713,7 +6290,7 @@
         <v>347</v>
       </c>
       <c r="U61" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
@@ -5721,7 +6298,7 @@
         <v>481</v>
       </c>
       <c r="U62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -5729,7 +6306,7 @@
         <v>482</v>
       </c>
       <c r="U63" t="s">
-        <v>584</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -5737,7 +6314,7 @@
         <v>411</v>
       </c>
       <c r="U64" t="s">
-        <v>86</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65">
@@ -5745,7 +6322,7 @@
         <v>350</v>
       </c>
       <c r="U65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -5753,7 +6330,7 @@
         <v>305</v>
       </c>
       <c r="U66" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -5761,7 +6338,7 @@
         <v>451</v>
       </c>
       <c r="U67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -5769,7 +6346,7 @@
         <v>351</v>
       </c>
       <c r="U68" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
@@ -5777,7 +6354,7 @@
         <v>525</v>
       </c>
       <c r="U69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -5785,7 +6362,7 @@
         <v>341</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -5793,7 +6370,7 @@
         <v>526</v>
       </c>
       <c r="U71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -5801,7 +6378,7 @@
         <v>298</v>
       </c>
       <c r="U72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -5809,7 +6386,7 @@
         <v>410</v>
       </c>
       <c r="U73" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -5817,7 +6394,7 @@
         <v>316</v>
       </c>
       <c r="U74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75">
@@ -5825,7 +6402,7 @@
         <v>322</v>
       </c>
       <c r="U75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76">
@@ -5833,7 +6410,7 @@
         <v>327</v>
       </c>
       <c r="U76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77">
@@ -5841,7 +6418,7 @@
         <v>577</v>
       </c>
       <c r="U77" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78">
@@ -5849,7 +6426,7 @@
         <v>368</v>
       </c>
       <c r="U78" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79">
@@ -5857,7 +6434,7 @@
         <v>306</v>
       </c>
       <c r="U79" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
@@ -5865,7 +6442,7 @@
         <v>317</v>
       </c>
       <c r="U80" t="s">
-        <v>585</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81">
@@ -5873,7 +6450,7 @@
         <v>323</v>
       </c>
       <c r="U81" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82">
@@ -5881,7 +6458,7 @@
         <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>222</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83">
@@ -5889,7 +6466,7 @@
         <v>307</v>
       </c>
       <c r="U83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84">
@@ -5897,7 +6474,7 @@
         <v>324</v>
       </c>
       <c r="U84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85">
@@ -5905,7 +6482,7 @@
         <v>308</v>
       </c>
       <c r="U85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86">
@@ -5913,7 +6490,7 @@
         <v>309</v>
       </c>
       <c r="U86" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
@@ -5921,7 +6498,7 @@
         <v>342</v>
       </c>
       <c r="U87" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88">
@@ -5929,7 +6506,7 @@
         <v>348</v>
       </c>
       <c r="U88" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89">
@@ -5937,7 +6514,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>495</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -5945,7 +6522,7 @@
         <v>406</v>
       </c>
       <c r="U90" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91">
@@ -5953,7 +6530,7 @@
         <v>313</v>
       </c>
       <c r="U91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
@@ -5961,101 +6538,106 @@
         <v>314</v>
       </c>
       <c r="U92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>115</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -25,16 +25,16 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">showcase!$A$1:$I$2</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -48,8 +48,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1842,13 +1842,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="90" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2329,8 +2353,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2967,8 +3085,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -4196,6 +4467,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4213,7 +4766,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4534,49 +5087,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="88" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="88" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="91" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="91" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="94" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="94" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="100" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="100" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="103" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="103" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="106" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="106" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="127" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="130" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5062,7 +5660,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5388,6 +5986,9 @@
       <c r="C5" t="s">
         <v>260</v>
       </c>
+      <c r="D5" t="s">
+        <v>589</v>
+      </c>
       <c r="E5" t="s">
         <v>402</v>
       </c>
@@ -5481,7 +6082,7 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>120</v>
+        <v>595</v>
       </c>
       <c r="W6" t="s">
         <v>125</v>
@@ -5536,6 +6137,9 @@
       <c r="U7" t="s">
         <v>43</v>
       </c>
+      <c r="V7" t="s">
+        <v>596</v>
+      </c>
       <c r="W7" t="s">
         <v>129</v>
       </c>
@@ -5586,6 +6190,9 @@
       <c r="U8" t="s">
         <v>44</v>
       </c>
+      <c r="V8" t="s">
+        <v>120</v>
+      </c>
       <c r="W8" t="s">
         <v>126</v>
       </c>
@@ -5654,7 +6261,7 @@
         <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>591</v>
       </c>
       <c r="M10" t="s">
         <v>582</v>
@@ -5689,7 +6296,7 @@
         <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M11" t="s">
         <v>164</v>
@@ -5721,7 +6328,7 @@
         <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -5749,6 +6356,9 @@
       <c r="I13" t="s">
         <v>170</v>
       </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
       <c r="M13" t="s">
         <v>165</v>
       </c>
@@ -5899,7 +6509,7 @@
         <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>590</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -5916,7 +6526,7 @@
         <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
         <v>53</v>
@@ -5932,6 +6542,9 @@
       <c r="E22" t="s">
         <v>335</v>
       </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
       <c r="U22" t="s">
         <v>54</v>
       </c>
@@ -6162,7 +6775,7 @@
         <v>408</v>
       </c>
       <c r="U45" t="s">
-        <v>232</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46">
@@ -6170,7 +6783,7 @@
         <v>229</v>
       </c>
       <c r="U46" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47">
@@ -6178,7 +6791,7 @@
         <v>338</v>
       </c>
       <c r="U47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
@@ -6186,7 +6799,7 @@
         <v>405</v>
       </c>
       <c r="U48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -6194,7 +6807,7 @@
         <v>480</v>
       </c>
       <c r="U49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -6202,7 +6815,7 @@
         <v>339</v>
       </c>
       <c r="U50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -6210,7 +6823,7 @@
         <v>457</v>
       </c>
       <c r="U51" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6218,7 +6831,7 @@
         <v>367</v>
       </c>
       <c r="U52" t="s">
-        <v>77</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53">
@@ -6226,7 +6839,7 @@
         <v>304</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -6234,7 +6847,7 @@
         <v>328</v>
       </c>
       <c r="U54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -6242,7 +6855,7 @@
         <v>329</v>
       </c>
       <c r="U55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -6250,7 +6863,7 @@
         <v>330</v>
       </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -6258,7 +6871,7 @@
         <v>340</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -6266,7 +6879,7 @@
         <v>349</v>
       </c>
       <c r="U58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -6274,7 +6887,7 @@
         <v>403</v>
       </c>
       <c r="U59" t="s">
-        <v>588</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -6282,7 +6895,7 @@
         <v>346</v>
       </c>
       <c r="U60" t="s">
-        <v>233</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61">
@@ -6290,7 +6903,7 @@
         <v>347</v>
       </c>
       <c r="U61" t="s">
-        <v>501</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
@@ -6298,7 +6911,7 @@
         <v>481</v>
       </c>
       <c r="U62" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63">
@@ -6306,7 +6919,7 @@
         <v>482</v>
       </c>
       <c r="U63" t="s">
-        <v>85</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64">
@@ -6314,7 +6927,7 @@
         <v>411</v>
       </c>
       <c r="U64" t="s">
-        <v>584</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -6322,7 +6935,7 @@
         <v>350</v>
       </c>
       <c r="U65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -6330,7 +6943,7 @@
         <v>305</v>
       </c>
       <c r="U66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -6338,7 +6951,7 @@
         <v>451</v>
       </c>
       <c r="U67" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -6346,7 +6959,7 @@
         <v>351</v>
       </c>
       <c r="U68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -6354,7 +6967,7 @@
         <v>525</v>
       </c>
       <c r="U69" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
@@ -6362,7 +6975,7 @@
         <v>341</v>
       </c>
       <c r="U70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -6370,7 +6983,7 @@
         <v>526</v>
       </c>
       <c r="U71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -6378,7 +6991,7 @@
         <v>298</v>
       </c>
       <c r="U72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -6386,7 +6999,7 @@
         <v>410</v>
       </c>
       <c r="U73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -6394,7 +7007,7 @@
         <v>316</v>
       </c>
       <c r="U74" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -6402,7 +7015,7 @@
         <v>322</v>
       </c>
       <c r="U75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76">
@@ -6410,7 +7023,7 @@
         <v>327</v>
       </c>
       <c r="U76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77">
@@ -6418,7 +7031,7 @@
         <v>577</v>
       </c>
       <c r="U77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78">
@@ -6426,7 +7039,7 @@
         <v>368</v>
       </c>
       <c r="U78" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79">
@@ -6434,7 +7047,7 @@
         <v>306</v>
       </c>
       <c r="U79" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80">
@@ -6442,7 +7055,7 @@
         <v>317</v>
       </c>
       <c r="U80" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
@@ -6450,7 +7063,7 @@
         <v>323</v>
       </c>
       <c r="U81" t="s">
-        <v>585</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82">
@@ -6458,7 +7071,7 @@
         <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83">
@@ -6466,7 +7079,7 @@
         <v>307</v>
       </c>
       <c r="U83" t="s">
-        <v>222</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84">
@@ -6474,7 +7087,7 @@
         <v>324</v>
       </c>
       <c r="U84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85">
@@ -6482,7 +7095,7 @@
         <v>308</v>
       </c>
       <c r="U85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86">
@@ -6490,7 +7103,7 @@
         <v>309</v>
       </c>
       <c r="U86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87">
@@ -6498,7 +7111,7 @@
         <v>342</v>
       </c>
       <c r="U87" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -6506,7 +7119,7 @@
         <v>348</v>
       </c>
       <c r="U88" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89">
@@ -6514,7 +7127,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90">
@@ -6522,7 +7135,7 @@
         <v>406</v>
       </c>
       <c r="U90" t="s">
-        <v>495</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -6530,7 +7143,7 @@
         <v>313</v>
       </c>
       <c r="U91" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92">
@@ -6538,106 +7151,116 @@
         <v>314</v>
       </c>
       <c r="U92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>109</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>115</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1872,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="90" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2447,8 +2447,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3238,8 +3332,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -4749,6 +4996,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4766,7 +5295,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5132,49 +5661,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="115" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="118" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="121" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="127" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="127" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="130" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="130" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="133" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="133" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="154" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="157" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1872,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2541,8 +2541,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3485,8 +3579,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -5278,6 +5525,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5295,7 +5824,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5706,49 +6235,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="142" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="145" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="148" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="154" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="154" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="157" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="157" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="160" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="160" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="169" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="172" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="175" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="181" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="184" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -34,7 +34,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1872,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="120" x14ac:knownFonts="1">
+  <fonts count="135" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2635,8 +2635,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3732,8 +3826,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="205">
+  <borders count="233">
     <border>
       <left/>
       <right/>
@@ -5807,6 +6054,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5824,7 +6353,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6280,49 +6809,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="169" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="169" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="172" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="172" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="175" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="175" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="181" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="181" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="184" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="184" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="187" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="187" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="196" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="199" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="202" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="208" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="211" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7265,7 +7839,7 @@
         <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -7321,7 +7895,7 @@
         <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" t="s">
         <v>162</v>
@@ -7371,7 +7945,7 @@
         <v>503</v>
       </c>
       <c r="K9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M9" t="s">
         <v>163</v>
@@ -7409,7 +7983,7 @@
         <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="M10" t="s">
         <v>582</v>
@@ -7444,7 +8018,7 @@
         <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>591</v>
       </c>
       <c r="M11" t="s">
         <v>164</v>
@@ -7476,7 +8050,7 @@
         <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -7505,7 +8079,7 @@
         <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M13" t="s">
         <v>165</v>
@@ -7532,6 +8106,9 @@
       </c>
       <c r="I14" t="s">
         <v>171</v>
+      </c>
+      <c r="K14" t="s">
+        <v>194</v>
       </c>
       <c r="M14" t="s">
         <v>166</v>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1866,13 +1866,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="150" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2729,8 +2735,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="221">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3979,8 +4079,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="233">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -6336,6 +6589,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6353,7 +6888,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6854,49 +7389,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="196" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="196" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="199" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="199" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="202" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="202" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="208" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="208" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="211" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="211" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="214" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="214" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="235" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="238" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7570,7 +8150,7 @@
         <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>364</v>
+        <v>597</v>
       </c>
       <c r="G3" t="s">
         <v>145</v>
@@ -7644,7 +8224,7 @@
         <v>499</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>598</v>
       </c>
       <c r="H4" t="s">
         <v>449</v>
@@ -7715,7 +8295,7 @@
         <v>402</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
         <v>446</v>
@@ -7777,7 +8357,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I6" t="s">
         <v>146</v>
@@ -7833,7 +8413,7 @@
         <v>478</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
         <v>168</v>
@@ -7889,7 +8469,7 @@
         <v>479</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I8" t="s">
         <v>147</v>
@@ -7941,6 +8521,9 @@
       <c r="E9" t="s">
         <v>343</v>
       </c>
+      <c r="F9" t="s">
+        <v>360</v>
+      </c>
       <c r="I9" t="s">
         <v>503</v>
       </c>
@@ -7978,6 +8561,9 @@
       </c>
       <c r="E10" t="s">
         <v>450</v>
+      </c>
+      <c r="F10" t="s">
+        <v>361</v>
       </c>
       <c r="I10" t="s">
         <v>148</v>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">showcase!$A$1:$I$2</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1872,13 +1872,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="150" x14ac:knownFonts="1">
+  <fonts count="180" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2829,8 +2844,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4232,8 +4435,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="261">
+  <borders count="317">
     <border>
       <left/>
       <right/>
@@ -6871,6 +7380,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6888,7 +7961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7434,49 +8507,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="223" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="226" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="229" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="235" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="235" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="238" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="238" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="241" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="241" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="250" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="253" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="256" fontId="153" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="262" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="265" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="268" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="268" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="277" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="280" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="283" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="289" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="292" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="295" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="295" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8070,7 +9233,7 @@
         <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="G2" t="s">
         <v>144</v>
@@ -8150,7 +9313,7 @@
         <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>145</v>
@@ -8224,7 +9387,7 @@
         <v>499</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H4" t="s">
         <v>449</v>
@@ -8295,7 +9458,7 @@
         <v>402</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>602</v>
       </c>
       <c r="H5" t="s">
         <v>446</v>
@@ -8357,7 +9520,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>598</v>
       </c>
       <c r="I6" t="s">
         <v>146</v>
@@ -8413,7 +9576,7 @@
         <v>478</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I7" t="s">
         <v>168</v>
@@ -8469,7 +9632,7 @@
         <v>479</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I8" t="s">
         <v>147</v>
@@ -8522,7 +9685,7 @@
         <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>603</v>
       </c>
       <c r="I9" t="s">
         <v>503</v>
@@ -8563,7 +9726,7 @@
         <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I10" t="s">
         <v>148</v>
@@ -8600,6 +9763,9 @@
       <c r="E11" t="s">
         <v>310</v>
       </c>
+      <c r="F11" t="s">
+        <v>359</v>
+      </c>
       <c r="I11" t="s">
         <v>149</v>
       </c>
@@ -8632,6 +9798,9 @@
       <c r="E12" t="s">
         <v>299</v>
       </c>
+      <c r="F12" t="s">
+        <v>360</v>
+      </c>
       <c r="I12" t="s">
         <v>169</v>
       </c>
@@ -8661,6 +9830,9 @@
       <c r="E13" t="s">
         <v>353</v>
       </c>
+      <c r="F13" t="s">
+        <v>361</v>
+      </c>
       <c r="I13" t="s">
         <v>170</v>
       </c>
@@ -8865,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>599</v>
       </c>
       <c r="E23" t="s">
         <v>326</v>
@@ -8879,7 +10051,7 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
         <v>315</v>
@@ -8893,7 +10065,7 @@
         <v>538</v>
       </c>
       <c r="C25" t="s">
-        <v>534</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
@@ -8907,7 +10079,7 @@
         <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
         <v>318</v>
@@ -8918,7 +10090,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
         <v>302</v>
@@ -8929,7 +10101,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
         <v>319</v>
@@ -8940,7 +10112,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>320</v>
@@ -8951,7 +10123,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
         <v>231</v>
@@ -8962,7 +10134,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
         <v>311</v>
@@ -8973,7 +10145,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
         <v>321</v>
@@ -8984,7 +10156,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>296</v>
@@ -8994,6 +10166,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
       <c r="E34" t="s">
         <v>366</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/web-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/web-showcase.xlsx
@@ -48,7 +48,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6921" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1887,13 +1887,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="180" x14ac:knownFonts="1">
+  <fonts count="210" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3032,8 +3038,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="356">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4741,8 +4935,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="317">
+  <borders count="373">
     <border>
       <left/>
       <right/>
@@ -7944,6 +8444,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7961,7 +9025,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8597,49 +9661,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="277" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="277" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="280" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="280" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="283" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="283" fontId="168" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="170" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="289" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="289" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="292" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="292" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="295" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="295" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="295" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="295" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="304" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="307" fontId="182" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="310" fontId="183" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="185" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="316" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="319" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="322" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="322" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="331" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="334" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="337" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="343" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="346" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="349" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="349" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9125,7 +10279,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10517,7 +11671,7 @@
         <v>577</v>
       </c>
       <c r="U77" t="s">
-        <v>219</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78">
@@ -10525,7 +11679,7 @@
         <v>368</v>
       </c>
       <c r="U78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79">
@@ -10533,7 +11687,7 @@
         <v>306</v>
       </c>
       <c r="U79" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -10541,7 +11695,7 @@
         <v>317</v>
       </c>
       <c r="U80" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81">
@@ -10549,7 +11703,7 @@
         <v>323</v>
       </c>
       <c r="U81" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -10557,7 +11711,7 @@
         <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>585</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83">
@@ -10565,7 +11719,7 @@
         <v>307</v>
       </c>
       <c r="U83" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84">
@@ -10573,7 +11727,7 @@
         <v>324</v>
       </c>
       <c r="U84" t="s">
-        <v>222</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85">
@@ -10581,7 +11735,7 @@
         <v>308</v>
       </c>
       <c r="U85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86">
@@ -10589,7 +11743,7 @@
         <v>309</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87">
@@ -10597,7 +11751,7 @@
         <v>342</v>
       </c>
       <c r="U87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -10605,7 +11759,7 @@
         <v>348</v>
       </c>
       <c r="U88" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -10613,7 +11767,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90">
@@ -10621,7 +11775,7 @@
         <v>406</v>
       </c>
       <c r="U90" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91">
@@ -10629,7 +11783,7 @@
         <v>313</v>
       </c>
       <c r="U91" t="s">
-        <v>495</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -10637,116 +11791,121 @@
         <v>314</v>
       </c>
       <c r="U92" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>594</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>108</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>115</v>
       </c>
     </row>
